--- a/biology/Botanique/Exsudat_végétal/Exsudat_végétal.xlsx
+++ b/biology/Botanique/Exsudat_végétal/Exsudat_végétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exsudat_v%C3%A9g%C3%A9tal</t>
+          <t>Exsudat_végétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un exsudat végétal est une substance qui s'écoule à l'extérieur d'une plante[2]. Les exsudats sont des substances organiques complexes, plus ou moins fluides, qui suintent de certaines espèces de plantes, généralement des arbres, atteintes de maladies ou de blessures, ou plus généralement des racines, dans le but de cicatriser la blessure et éviter l'infection par des bactéries et des insectes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un exsudat végétal est une substance qui s'écoule à l'extérieur d'une plante. Les exsudats sont des substances organiques complexes, plus ou moins fluides, qui suintent de certaines espèces de plantes, généralement des arbres, atteintes de maladies ou de blessures, ou plus généralement des racines, dans le but de cicatriser la blessure et éviter l'infection par des bactéries et des insectes.
 Les exsudats comprennent notamment les gommes, les résines, les latex, voire la sève. Les exsudats racinaires sont des produits de la rhizodéposition à action notamment télétoxique.
 Les exsudats sont utilisés depuis très longtemps à diverses fins, notamment médicinales. Ils font partie des produits forestiers non ligneux (PFNL). 
 </t>
